--- a/dataframe_com_residuos.xlsx
+++ b/dataframe_com_residuos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,60 +450,65 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>3763_long</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3763_lat</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Estacao id</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Estacao</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>pm10</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pm10_weighted</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Uso_solo_simplificado_500m</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>urban_pm10w</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>transp_pm10w</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>lasso_pm10</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>residuals_manual</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>residuals</t>
         </is>
@@ -520,30 +525,30 @@
         <v>43271</v>
       </c>
       <c r="D2" t="n">
+        <v>-41240.98379323598</v>
+      </c>
+      <c r="E2" t="n">
+        <v>147938.0050598391</v>
+      </c>
+      <c r="F2" t="n">
         <v>1054</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Anta-Espinho</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>13.68181818181818</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>20.64603079546817</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
@@ -551,12 +556,15 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>21.95466334525615</v>
       </c>
-      <c r="N2" t="n">
-        <v>-8.272845163437971</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>-8.272845163437971</v>
       </c>
     </row>
@@ -571,43 +579,46 @@
         <v>43271</v>
       </c>
       <c r="D3" t="n">
+        <v>-66272.45263627032</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-126138.6028363526</v>
+      </c>
+      <c r="F3" t="n">
         <v>3093</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Arcos</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>36.49166666666667</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>32.93764130559803</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>32.93764130559803</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>39.90442178025545</v>
       </c>
-      <c r="N3" t="n">
-        <v>-3.41275511358878</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>-3.41275511358878</v>
       </c>
     </row>
@@ -622,43 +633,46 @@
         <v>43271</v>
       </c>
       <c r="D4" t="n">
+        <v>-43558.43466270123</v>
+      </c>
+      <c r="E4" t="n">
+        <v>107718.4020588042</v>
+      </c>
+      <c r="F4" t="n">
         <v>2017</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Aveiro</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>27.125</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>18.85869837746607</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>18.85869837746607</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>22.03780098769863</v>
       </c>
-      <c r="N4" t="n">
-        <v>5.087199012301369</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>5.087199012301369</v>
       </c>
     </row>
@@ -673,43 +687,46 @@
         <v>43271</v>
       </c>
       <c r="D5" t="n">
+        <v>-88100.74996332327</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-104660.1003179846</v>
+      </c>
+      <c r="F5" t="n">
         <v>3075</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Avenida da Liberdade</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>48.41666666666666</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>32.89084930364226</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>32.89084930364226</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>40.31272124468945</v>
       </c>
-      <c r="N5" t="n">
-        <v>8.103945421977208</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>8.103945421977208</v>
       </c>
     </row>
@@ -724,30 +741,30 @@
         <v>43271</v>
       </c>
       <c r="D6" t="n">
+        <v>-35388.72693303043</v>
+      </c>
+      <c r="E6" t="n">
+        <v>158867.6773189802</v>
+      </c>
+      <c r="F6" t="n">
         <v>1053</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Avintes</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>27.2</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>21.89124717822572</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -755,12 +772,15 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>23.39306784081635</v>
       </c>
-      <c r="N6" t="n">
-        <v>3.806932159183646</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>3.806932159183646</v>
       </c>
     </row>
@@ -775,30 +795,30 @@
         <v>43271</v>
       </c>
       <c r="D7" t="n">
+        <v>-27403.9492883257</v>
+      </c>
+      <c r="E7" t="n">
+        <v>187227.2855117856</v>
+      </c>
+      <c r="F7" t="n">
         <v>1052</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Burgães-Santo Tirso</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>24.45454545454545</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>18.73569299496276</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -806,12 +826,15 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>19.74794769459915</v>
       </c>
-      <c r="N7" t="n">
-        <v>4.706597759946295</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>4.706597759946295</v>
       </c>
     </row>
@@ -826,43 +849,46 @@
         <v>43271</v>
       </c>
       <c r="D8" t="n">
+        <v>-112752.9673229535</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-106543.0458416694</v>
+      </c>
+      <c r="F8" t="n">
         <v>3104</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Cascais - Escola da Cidadela</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>41.12380952380953</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>28.20358804427715</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>28.20358804427715</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>33.89675949598128</v>
       </c>
-      <c r="N8" t="n">
-        <v>7.227050027828248</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>7.227050027828248</v>
       </c>
     </row>
@@ -877,30 +903,30 @@
         <v>43271</v>
       </c>
       <c r="D9" t="n">
+        <v>40289.51717425437</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-261406.0043309593</v>
+      </c>
+      <c r="F9" t="n">
         <v>5012</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Cerro</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>14.45833333333333</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>16.79738220759935</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -908,12 +934,15 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>17.5089192101183</v>
       </c>
-      <c r="N9" t="n">
-        <v>-3.05058587678497</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>-3.05058587678497</v>
       </c>
     </row>
@@ -928,30 +957,30 @@
         <v>43271</v>
       </c>
       <c r="D10" t="n">
+        <v>-28813.71500864098</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-34827.53944008095</v>
+      </c>
+      <c r="F10" t="n">
         <v>3096</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Chamusca</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>29.04583333333333</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>23.06041636353474</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -959,12 +988,15 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>24.74362685650704</v>
       </c>
-      <c r="N10" t="n">
-        <v>4.302206476826289</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>4.302206476826289</v>
       </c>
     </row>
@@ -979,43 +1011,46 @@
         <v>43271</v>
       </c>
       <c r="D11" t="n">
+        <v>-25706.74868057218</v>
+      </c>
+      <c r="E11" t="n">
+        <v>60705.52823479236</v>
+      </c>
+      <c r="F11" t="n">
         <v>2006</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Coimbra/ Avenida Fernão Magalhães</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>37.58333333333334</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>24.21703155113064</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>24.21703155113064</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>29.18203974111052</v>
       </c>
-      <c r="N11" t="n">
-        <v>8.401293592222821</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>8.401293592222821</v>
       </c>
     </row>
@@ -1030,43 +1065,46 @@
         <v>43271</v>
       </c>
       <c r="D12" t="n">
+        <v>-13646.36265228279</v>
+      </c>
+      <c r="E12" t="n">
+        <v>197834.0127053966</v>
+      </c>
+      <c r="F12" t="n">
         <v>1046</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Cónego Dr. Manuel Faria-Azurém</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>18.83333333333333</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>15.45705537044591</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>15.45705537044591</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>17.72100916686938</v>
       </c>
-      <c r="N12" t="n">
-        <v>1.112324166463949</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>1.112324166463949</v>
       </c>
     </row>
@@ -1081,43 +1119,46 @@
         <v>43271</v>
       </c>
       <c r="D13" t="n">
+        <v>-36349.8996733779</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-280753.8965851989</v>
+      </c>
+      <c r="F13" t="n">
         <v>5011</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>David Neto</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>38.29166666666666</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>29.74194464589739</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>29.74194464589739</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>35.8489823429079</v>
       </c>
-      <c r="N13" t="n">
-        <v>2.442684323758762</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>2.442684323758762</v>
       </c>
     </row>
@@ -1132,30 +1173,30 @@
         <v>43271</v>
       </c>
       <c r="D14" t="n">
+        <v>28635.95884533177</v>
+      </c>
+      <c r="E14" t="n">
+        <v>189170.9787543955</v>
+      </c>
+      <c r="F14" t="n">
         <v>1048</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Douro Norte</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>10.75</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>9.911897496874564</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -1163,12 +1204,15 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>9.55519140894306</v>
       </c>
-      <c r="N14" t="n">
-        <v>1.19480859105694</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>1.19480859105694</v>
       </c>
     </row>
@@ -1183,43 +1227,46 @@
         <v>43271</v>
       </c>
       <c r="D15" t="n">
+        <v>-88315.70665058788</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-101613.5563501885</v>
+      </c>
+      <c r="F15" t="n">
         <v>3072</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Entrecampos</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>40.19583333333333</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>31.7736527854409</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>31.7736527854409</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>38.87907818510292</v>
       </c>
-      <c r="N15" t="n">
-        <v>1.316755148230413</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>1.316755148230413</v>
       </c>
     </row>
@@ -1234,43 +1281,46 @@
         <v>43271</v>
       </c>
       <c r="D16" t="n">
+        <v>-35183.61156174825</v>
+      </c>
+      <c r="E16" t="n">
+        <v>170907.5738444125</v>
+      </c>
+      <c r="F16" t="n">
         <v>1023</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Ermesinde-Valongo</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>27.20833333333333</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>22.68205445900004</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>22.68205445900004</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>26.88975994600851</v>
       </c>
-      <c r="N16" t="n">
-        <v>0.3185733873248182</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>0.3185733873248182</v>
       </c>
     </row>
@@ -1285,30 +1335,30 @@
         <v>43271</v>
       </c>
       <c r="D17" t="n">
+        <v>-64956.52551082154</v>
+      </c>
+      <c r="E17" t="n">
+        <v>28737.67628863895</v>
+      </c>
+      <c r="F17" t="n">
         <v>2019</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Ervedeira</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>31.45833333333333</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>25.17787668475592</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -1316,12 +1366,15 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>27.18959888786597</v>
       </c>
-      <c r="N17" t="n">
-        <v>4.268734445467356</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>4.268734445467356</v>
       </c>
     </row>
@@ -1336,43 +1389,46 @@
         <v>43271</v>
       </c>
       <c r="D18" t="n">
+        <v>-81372.6836666842</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-111421.3437174443</v>
+      </c>
+      <c r="F18" t="n">
         <v>3095</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Escavadeira</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>35.2875</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>33.82417065389357</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>33.82417065389357</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>41.51040639170898</v>
       </c>
-      <c r="N18" t="n">
-        <v>-6.222906391708975</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>-6.222906391708975</v>
       </c>
     </row>
@@ -1387,30 +1443,30 @@
         <v>43271</v>
       </c>
       <c r="D19" t="n">
+        <v>-36651.84012050802</v>
+      </c>
+      <c r="E19" t="n">
+        <v>121155.5876622568</v>
+      </c>
+      <c r="F19" t="n">
         <v>2004</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Estarreja</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>17.89473684210526</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>18.94870887804427</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -1418,12 +1474,15 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>19.99401175871919</v>
       </c>
-      <c r="N19" t="n">
-        <v>-2.099274916613929</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>-2.099274916613929</v>
       </c>
     </row>
@@ -1438,30 +1497,30 @@
         <v>43271</v>
       </c>
       <c r="D20" t="n">
+        <v>-48640.1828791037</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-114310.1729534447</v>
+      </c>
+      <c r="F20" t="n">
         <v>3099</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Fernando Pó</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>38.3375</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>28.03150538351018</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -1469,12 +1528,15 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>30.48595155860252</v>
       </c>
-      <c r="N20" t="n">
-        <v>7.851548441397483</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>7.851548441397483</v>
       </c>
     </row>
@@ -1489,30 +1551,30 @@
         <v>43271</v>
       </c>
       <c r="D21" t="n">
+        <v>2800.082843977328</v>
+      </c>
+      <c r="E21" t="n">
+        <v>108354.6833078669</v>
+      </c>
+      <c r="F21" t="n">
         <v>2021</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Fornelo do Monte</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>14.47368421052632</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>14.67341021479265</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -1520,12 +1582,15 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>15.05542525902564</v>
       </c>
-      <c r="N21" t="n">
-        <v>-0.5817410484993246</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>-0.5817410484993246</v>
       </c>
     </row>
@@ -1540,43 +1605,46 @@
         <v>43271</v>
       </c>
       <c r="D22" t="n">
+        <v>-38417.07184248177</v>
+      </c>
+      <c r="E22" t="n">
+        <v>166057.8584131754</v>
+      </c>
+      <c r="F22" t="n">
         <v>1028</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Francisco Sá Carneiro-Campanha</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>17.22727272727273</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>23.03242851249266</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>23.03242851249266</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>27.66189722630692</v>
       </c>
-      <c r="N22" t="n">
-        <v>-10.43462449903419</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>-10.43462449903419</v>
       </c>
     </row>
@@ -1591,30 +1659,30 @@
         <v>43271</v>
       </c>
       <c r="D23" t="n">
+        <v>-27011.71508521114</v>
+      </c>
+      <c r="E23" t="n">
+        <v>211176.0104735445</v>
+      </c>
+      <c r="F23" t="n">
         <v>1042</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Frossos-Braga</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>10.08333333333333</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>15.10060868609654</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -1622,12 +1690,15 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>15.54890109995474</v>
       </c>
-      <c r="N23" t="n">
-        <v>-5.465567766621405</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>-5.465567766621405</v>
       </c>
     </row>
@@ -1642,30 +1713,30 @@
         <v>43271</v>
       </c>
       <c r="D24" t="n">
+        <v>70935.36005037882</v>
+      </c>
+      <c r="E24" t="n">
+        <v>63045.40048538535</v>
+      </c>
+      <c r="F24" t="n">
         <v>2020</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Fundão</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>18.41666666666667</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>14.6387783591567</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
@@ -1673,12 +1744,15 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>15.0154204714834</v>
       </c>
-      <c r="N24" t="n">
-        <v>3.401246195183274</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>3.401246195183274</v>
       </c>
     </row>
@@ -1693,30 +1767,30 @@
         <v>43271</v>
       </c>
       <c r="D25" t="n">
+        <v>-45621.89032152404</v>
+      </c>
+      <c r="E25" t="n">
+        <v>102590.1969691089</v>
+      </c>
+      <c r="F25" t="n">
         <v>2018</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Ílhavo</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>32.83333333333334</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>18.55732009616839</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -1724,12 +1798,15 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>19.54190127321836</v>
       </c>
-      <c r="N25" t="n">
-        <v>13.29143206011498</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>13.29143206011498</v>
       </c>
     </row>
@@ -1744,43 +1821,46 @@
         <v>43271</v>
       </c>
       <c r="D26" t="n">
+        <v>-23757.20026268262</v>
+      </c>
+      <c r="E26" t="n">
+        <v>60019.13636161671</v>
+      </c>
+      <c r="F26" t="n">
         <v>2016</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Instituto Geofísico de Coimbra</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>28.45833333333333</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>24.40424949410358</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>1</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>24.40424949410358</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>29.07527953935356</v>
       </c>
-      <c r="N26" t="n">
-        <v>-0.6169462060202271</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>-0.6169462060202271</v>
       </c>
     </row>
@@ -1795,43 +1875,46 @@
         <v>43271</v>
       </c>
       <c r="D27" t="n">
+        <v>-44459.38968440656</v>
+      </c>
+      <c r="E27" t="n">
+        <v>168671.8798665049</v>
+      </c>
+      <c r="F27" t="n">
         <v>1030</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>João Gomes Laranjo-S.Hora</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>27.28571428571428</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>23.26173016194345</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>1</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>23.26173016194345</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>27.95614869677885</v>
       </c>
-      <c r="N27" t="n">
-        <v>-0.6704344110645657</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>-0.6704344110645657</v>
       </c>
     </row>
@@ -1846,43 +1929,46 @@
         <v>43271</v>
       </c>
       <c r="D28" t="n">
+        <v>18372.0889688789</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-294499.7055014788</v>
+      </c>
+      <c r="F28" t="n">
         <v>5007</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Joaquim Magalhães</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>30.44166666666667</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>27.02458913103547</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>1</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
         <v>27.02458913103547</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>32.40057284295954</v>
       </c>
-      <c r="N28" t="n">
-        <v>-1.958906176292871</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>-1.958906176292871</v>
       </c>
     </row>
@@ -1897,43 +1983,46 @@
         <v>43271</v>
       </c>
       <c r="D29" t="n">
+        <v>-89171.41023677563</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-111050.5821180434</v>
+      </c>
+      <c r="F29" t="n">
         <v>3083</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Laranjeiro</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>38.62916666666667</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>32.97233577505904</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>1</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>32.97233577505904</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>39.94845015174776</v>
       </c>
-      <c r="N29" t="n">
-        <v>-1.319283485081087</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>-1.319283485081087</v>
       </c>
     </row>
@@ -1948,43 +2037,46 @@
         <v>43271</v>
       </c>
       <c r="D30" t="n">
+        <v>-79666.82331478485</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-110615.535824162</v>
+      </c>
+      <c r="F30" t="n">
         <v>3055</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Lavradio</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
         <v>39.97916666666666</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>33.6246065931518</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>1</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
         <v>33.6246065931518</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>40.7762023076023</v>
       </c>
-      <c r="N30" t="n">
-        <v>-0.7970356409356398</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>-0.7970356409356398</v>
       </c>
     </row>
@@ -1999,30 +2091,30 @@
         <v>43271</v>
       </c>
       <c r="D31" t="n">
+        <v>-89565.78735214358</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-92599.20116346177</v>
+      </c>
+      <c r="F31" t="n">
         <v>3085</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Loures-Centro</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>25.6375</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>27.97678762543504</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
@@ -2030,12 +2122,15 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>30.42274465714178</v>
       </c>
-      <c r="N31" t="n">
-        <v>-4.785244657141778</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>-4.785244657141778</v>
       </c>
     </row>
@@ -2050,30 +2145,30 @@
         <v>43271</v>
       </c>
       <c r="D32" t="n">
+        <v>-96115.9370233228</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-42518.17937972415</v>
+      </c>
+      <c r="F32" t="n">
         <v>3102</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Lourinhã</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>25.84583333333333</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>25.45935860930451</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -2081,12 +2176,15 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>27.51475110341345</v>
       </c>
-      <c r="N32" t="n">
-        <v>-1.668917770080117</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>-1.668917770080117</v>
       </c>
     </row>
@@ -2101,43 +2199,46 @@
         <v>43271</v>
       </c>
       <c r="D33" t="n">
+        <v>-10367.50548500558</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-286004.8689279474</v>
+      </c>
+      <c r="F33" t="n">
         <v>5008</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Malpique</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>43.41666666666666</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>29.89094651229147</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>1</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>29.89094651229147</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>36.03807039148055</v>
       </c>
-      <c r="N33" t="n">
-        <v>7.378596275186105</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>7.378596275186105</v>
       </c>
     </row>
@@ -2152,30 +2253,30 @@
         <v>43271</v>
       </c>
       <c r="D34" t="n">
+        <v>-48625.38359926796</v>
+      </c>
+      <c r="E34" t="n">
+        <v>173843.5768246099</v>
+      </c>
+      <c r="F34" t="n">
         <v>1025</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Meco-Perafita</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>20.25</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>22.66369613285387</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -2183,12 +2284,15 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>24.28535777878471</v>
       </c>
-      <c r="N34" t="n">
-        <v>-4.035357778784711</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>-4.035357778784711</v>
       </c>
     </row>
@@ -2203,43 +2307,46 @@
         <v>43271</v>
       </c>
       <c r="D35" t="n">
+        <v>-105605.5783548283</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-97194.26695687171</v>
+      </c>
+      <c r="F35" t="n">
         <v>3089</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Mem Martins</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>27.72083333333333</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>26.55954726445246</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I35" t="n">
+      <c r="K35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
         <v>26.55954726445246</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>31.81042010739449</v>
       </c>
-      <c r="N35" t="n">
-        <v>-4.089586774061154</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>-4.089586774061154</v>
       </c>
     </row>
@@ -2254,30 +2361,30 @@
         <v>43271</v>
       </c>
       <c r="D36" t="n">
+        <v>-49218.58775434551</v>
+      </c>
+      <c r="E36" t="n">
+        <v>182292.3852031552</v>
+      </c>
+      <c r="F36" t="n">
         <v>1051</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Mindelo-Vila do Conde</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>16.58333333333333</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>21.24585750058139</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
@@ -2285,12 +2392,15 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>22.64754969106639</v>
       </c>
-      <c r="N36" t="n">
-        <v>-6.064216357733059</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>-6.064216357733059</v>
       </c>
     </row>
@@ -2305,30 +2415,30 @@
         <v>43271</v>
       </c>
       <c r="D37" t="n">
+        <v>-45617.3383066796</v>
+      </c>
+      <c r="E37" t="n">
+        <v>59423.25160959856</v>
+      </c>
+      <c r="F37" t="n">
         <v>2022</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Montemor-o-Velho</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
         <v>28.625</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>25.25524961832934</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
@@ -2336,12 +2446,15 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>27.27897578414502</v>
       </c>
-      <c r="N37" t="n">
-        <v>1.346024215854978</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>1.346024215854978</v>
       </c>
     </row>
@@ -2356,43 +2469,46 @@
         <v>43271</v>
       </c>
       <c r="D38" t="n">
+        <v>-91234.92545238844</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-95463.65016965409</v>
+      </c>
+      <c r="F38" t="n">
         <v>3097</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Odivelas-Ramada</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>43.25416666666666</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>28.63738323879013</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I38" t="n">
+      <c r="K38" t="n">
         <v>1</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
         <v>28.63738323879013</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>34.44725922323779</v>
       </c>
-      <c r="N38" t="n">
-        <v>8.806907443428869</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>8.806907443428869</v>
       </c>
     </row>
@@ -2407,43 +2523,46 @@
         <v>43271</v>
       </c>
       <c r="D39" t="n">
+        <v>-84663.70417772795</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-99297.70340514423</v>
+      </c>
+      <c r="F39" t="n">
         <v>3071</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Olivais</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
         <v>36.34166666666667</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>31.03275876896798</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I39" t="n">
+      <c r="K39" t="n">
         <v>1</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
         <v>31.03275876896798</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>37.4870660092957</v>
       </c>
-      <c r="N39" t="n">
-        <v>-1.145399342629034</v>
-      </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>-1.145399342629034</v>
       </c>
     </row>
@@ -2458,43 +2577,46 @@
         <v>43271</v>
       </c>
       <c r="D40" t="n">
+        <v>-20338.95193150245</v>
+      </c>
+      <c r="E40" t="n">
+        <v>178346.931984557</v>
+      </c>
+      <c r="F40" t="n">
         <v>1044</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Paços de Ferreira</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>27.79166666666667</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>18.62189344545493</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I40" t="n">
+      <c r="K40" t="n">
         <v>1</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>18.62189344545493</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>21.73728809098135</v>
       </c>
-      <c r="N40" t="n">
-        <v>6.054378575685323</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>6.054378575685323</v>
       </c>
     </row>
@@ -2509,43 +2631,46 @@
         <v>43271</v>
       </c>
       <c r="D41" t="n">
+        <v>-82644.30700047665</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-115839.1324620537</v>
+      </c>
+      <c r="F41" t="n">
         <v>3063</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Paio Pires</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>38.65833333333333</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>33.57066858262246</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I41" t="n">
+      <c r="K41" t="n">
         <v>1</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>33.57066858262246</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>40.70775327805853</v>
       </c>
-      <c r="N41" t="n">
-        <v>-2.049419944725202</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>-2.049419944725202</v>
       </c>
     </row>
@@ -2560,43 +2685,46 @@
         <v>43271</v>
       </c>
       <c r="D42" t="n">
+        <v>-17191.3216126775</v>
+      </c>
+      <c r="E42" t="n">
+        <v>170935.1598453979</v>
+      </c>
+      <c r="F42" t="n">
         <v>1043</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Pe Moreira Neves-Castelões de Cepeda</t>
         </is>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>7</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>18.08886559205197</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I42" t="n">
+      <c r="K42" t="n">
         <v>1</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
         <v>18.08886559205197</v>
       </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>21.06085900271564</v>
       </c>
-      <c r="N42" t="n">
-        <v>-14.06085900271564</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>-14.06085900271564</v>
       </c>
     </row>
@@ -2611,43 +2739,46 @@
         <v>43271</v>
       </c>
       <c r="D43" t="n">
+        <v>-65679.59472312924</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-126634.1711313672</v>
+      </c>
+      <c r="F43" t="n">
         <v>3094</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Quebedo</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
         <v>39.85833333333333</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
         <v>33.01948570155671</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I43" t="n">
+      <c r="K43" t="n">
         <v>1</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>33.01948570155671</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>40.00828488944298</v>
       </c>
-      <c r="N43" t="n">
-        <v>-0.1499515561096558</v>
-      </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>-0.1499515561096558</v>
       </c>
     </row>
@@ -2662,30 +2793,30 @@
         <v>43271</v>
       </c>
       <c r="D44" t="n">
+        <v>-103468.263840127</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-107008.9732109705</v>
+      </c>
+      <c r="F44" t="n">
         <v>3091</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Quinta do Marquês</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>28.62916666666667</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>29.65253984794291</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
@@ -2693,12 +2824,15 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>32.35848013547081</v>
       </c>
-      <c r="N44" t="n">
-        <v>-3.729313468804136</v>
-      </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>-3.729313468804136</v>
       </c>
     </row>
@@ -2713,43 +2847,46 @@
         <v>43271</v>
       </c>
       <c r="D45" t="n">
+        <v>-95349.98688683084</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-100835.0974849642</v>
+      </c>
+      <c r="F45" t="n">
         <v>3084</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Reboleira</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
         <v>31.62083333333333</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>29.48644693160862</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I45" t="n">
+      <c r="K45" t="n">
         <v>1</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
         <v>29.48644693160862</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>35.52474771834378</v>
       </c>
-      <c r="N45" t="n">
-        <v>-3.903914385010452</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>-3.903914385010452</v>
       </c>
     </row>
@@ -2764,43 +2901,46 @@
         <v>43271</v>
       </c>
       <c r="D46" t="n">
+        <v>-45229.61107704999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>168888.1855759922</v>
+      </c>
+      <c r="F46" t="n">
         <v>1055</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Seara-Matosinhos</t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
         <v>25</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>23.30881037668967</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I46" t="n">
+      <c r="K46" t="n">
         <v>1</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
         <v>23.30881037668967</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>27.6851328918336</v>
       </c>
-      <c r="N46" t="n">
-        <v>-2.6851328918336</v>
-      </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>-2.6851328918336</v>
       </c>
     </row>
@@ -2815,30 +2955,30 @@
         <v>43271</v>
       </c>
       <c r="D47" t="n">
+        <v>-51987.88061520166</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-199371.392016597</v>
+      </c>
+      <c r="F47" t="n">
         <v>4003</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Sonega</t>
         </is>
       </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
         <v>19.29166666666667</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I47" t="n">
         <v>24.91582792010203</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
@@ -2846,12 +2986,15 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>26.88689477446567</v>
       </c>
-      <c r="N47" t="n">
-        <v>-7.595228107799002</v>
-      </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>-7.595228107799002</v>
       </c>
     </row>
@@ -2866,30 +3009,30 @@
         <v>43271</v>
       </c>
       <c r="D48" t="n">
+        <v>63944.8494208218</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-116479.9707796853</v>
+      </c>
+      <c r="F48" t="n">
         <v>4006</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Terena</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
         <v>25.33333333333333</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>22.57544372407552</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
@@ -2897,12 +3040,15 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
         <v>24.18341351970768</v>
       </c>
-      <c r="N48" t="n">
-        <v>1.149919813625647</v>
-      </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>1.149919813625647</v>
       </c>
     </row>
@@ -2917,43 +3063,46 @@
         <v>43271</v>
       </c>
       <c r="D49" t="n">
+        <v>-44201.63639316942</v>
+      </c>
+      <c r="E49" t="n">
+        <v>176032.116001857</v>
+      </c>
+      <c r="F49" t="n">
         <v>1031</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>VNTelha-Maia</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
         <v>25.70588235294118</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
         <v>22.30368022065842</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
       </c>
-      <c r="I49" t="n">
+      <c r="K49" t="n">
         <v>1</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
         <v>22.30368022065842</v>
       </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
         <v>26.4095911528945</v>
       </c>
-      <c r="N49" t="n">
-        <v>-0.7037087999533149</v>
-      </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>-0.7037087999533149</v>
       </c>
     </row>
